--- a/soberano/test_cases/process_run_preconditions_test_cases.xlsx
+++ b/soberano/test_cases/process_run_preconditions_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t xml:space="preserve">Before process runs recording test cases, this is the expected mm8 stock.</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days before current day</t>
   </si>
   <si>
     <t xml:space="preserve">Provider</t>
@@ -105,7 +108,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,6 +136,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,6 +196,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,20 +230,20 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="30.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,7 +269,7 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AMI4" s="0"/>
+      <c r="E4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -266,7 +279,8 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -275,14 +289,14 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -301,6 +315,9 @@
       </c>
       <c r="K7" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,53 +325,56 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>20000</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>23</v>
+      <c r="K8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -363,13 +383,12 @@
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,45 +398,51 @@
       <c r="B14" s="2" t="n">
         <v>100000</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <f aca="false">G8/B14</f>
+      <c r="C14" s="2"/>
+      <c r="D14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="false">H8/B14</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/soberano/test_cases/process_run_preconditions_test_cases.xlsx
+++ b/soberano/test_cases/process_run_preconditions_test_cases.xlsx
@@ -108,7 +108,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,12 +137,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,10 +190,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,7 +220,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.1"/>
@@ -238,7 +228,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.66"/>
@@ -289,7 +279,7 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -351,10 +341,10 @@
       <c r="J8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -429,16 +419,16 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
